--- a/mbs-perturbation/nano/svm/nano-svm-poly-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3313084112149532</v>
+        <v>0.7829439252336449</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5240330874133691</v>
+        <v>0.8063939190699754</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6258215962441315</v>
+        <v>0.8884976525821596</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5484741784037559</v>
+        <v>0.479225352112676</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3428403755868544</v>
+        <v>0.5541079812206572</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4744955297726128</v>
+        <v>0.7022337660438226</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/nano/svm/nano-svm-poly-results.xlsx
+++ b/mbs-perturbation/nano/svm/nano-svm-poly-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7829439252336449</v>
+        <v>0.400976668475312</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8063939190699754</v>
+        <v>0.8206728160607704</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8884976525821596</v>
+        <v>0.6910080183276058</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.479225352112676</v>
+        <v>0.8940550859012817</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5541079812206572</v>
+        <v>0.6513498772838833</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7022337660438226</v>
+        <v>0.6916124932097707</v>
       </c>
     </row>
   </sheetData>
